--- a/xlsx/country_comparison/gcs_important_positive.xlsx
+++ b/xlsx/country_comparison/gcs_important_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">It would succeed in limiting climate change</t>
@@ -410,228 +407,192 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.76</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.785714285714286</v>
+        <v>0.879518072289157</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.705882352941177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="C3" t="n">
-        <v>0.714285714285714</v>
+        <v>0.686746987951807</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5625</v>
+        <v>0.730769230769231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.875</v>
+        <v>0.705882352941177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.72</v>
+        <v>0.706666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.714285714285714</v>
+        <v>0.650602409638554</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.791666666666667</v>
+        <v>0.588235294117647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.928571428571429</v>
+        <v>0.807228915662651</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6875</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.541666666666667</v>
+        <v>0.764705882352941</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.76</v>
+        <v>0.853333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.857142857142857</v>
+        <v>0.855421686746988</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6875</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.708333333333333</v>
+        <v>0.705882352941177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.76</v>
+        <v>0.853333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.642857142857143</v>
+        <v>0.686746987951807</v>
       </c>
       <c r="D7" t="n">
-        <v>0.625</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.625</v>
+        <v>0.647058823529412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="C8" t="n">
-        <v>0.928571428571429</v>
+        <v>0.831325301204819</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6875</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.705882352941177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.76</v>
+        <v>0.853333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.785714285714286</v>
+        <v>0.698795180722892</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8125</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.541666666666667</v>
+        <v>0.470588235294118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.571428571428571</v>
+        <v>0.674698795180723</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5625</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="E10" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.75</v>
+        <v>0.764705882352941</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.64</v>
+        <v>0.706666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5</v>
+        <v>0.63855421686747</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6875</v>
+        <v>0.730769230769231</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.875</v>
+        <v>0.705882352941177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.72</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.571428571428571</v>
+        <v>0.698795180722892</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5625</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.708333333333333</v>
+        <v>0.823529411764706</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_important_positive.xlsx
+++ b/xlsx/country_comparison/gcs_important_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">It would succeed in limiting climate change</t>
@@ -407,193 +410,207 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.866666666666667</v>
+        <v>0.847402597402597</v>
       </c>
       <c r="C2" t="n">
-        <v>0.879518072289157</v>
+        <v>0.872628726287263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.923076923076923</v>
+        <v>0.88212927756654</v>
       </c>
       <c r="E2" t="n">
-        <v>0.705882352941177</v>
-      </c>
+        <v>0.821538461538462</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.68</v>
+        <v>0.61038961038961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.686746987951807</v>
+        <v>0.663956639566396</v>
       </c>
       <c r="D3" t="n">
-        <v>0.730769230769231</v>
+        <v>0.688212927756654</v>
       </c>
       <c r="E3" t="n">
-        <v>0.705882352941177</v>
-      </c>
+        <v>0.649230769230769</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.706666666666667</v>
+        <v>0.564935064935065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.650602409638554</v>
+        <v>0.650406504065041</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.608365019011407</v>
       </c>
       <c r="E4" t="n">
-        <v>0.588235294117647</v>
-      </c>
+        <v>0.581538461538462</v>
+      </c>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.807228915662651</v>
+        <v>0.802168021680217</v>
       </c>
       <c r="D5" t="n">
-        <v>0.673076923076923</v>
+        <v>0.737642585551331</v>
       </c>
       <c r="E5" t="n">
-        <v>0.764705882352941</v>
-      </c>
+        <v>0.790769230769231</v>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.853333333333333</v>
+        <v>0.86038961038961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.855421686746988</v>
+        <v>0.848238482384824</v>
       </c>
       <c r="D6" t="n">
-        <v>0.923076923076923</v>
+        <v>0.878326996197719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.705882352941177</v>
-      </c>
+        <v>0.812307692307692</v>
+      </c>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.853333333333333</v>
+        <v>0.756493506493506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.686746987951807</v>
+        <v>0.680216802168022</v>
       </c>
       <c r="D7" t="n">
-        <v>0.711538461538462</v>
+        <v>0.768060836501901</v>
       </c>
       <c r="E7" t="n">
-        <v>0.647058823529412</v>
-      </c>
+        <v>0.661538461538462</v>
+      </c>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.76</v>
+        <v>0.805194805194805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.831325301204819</v>
+        <v>0.802168021680217</v>
       </c>
       <c r="D8" t="n">
-        <v>0.807692307692308</v>
+        <v>0.840304182509506</v>
       </c>
       <c r="E8" t="n">
-        <v>0.705882352941177</v>
-      </c>
+        <v>0.781538461538462</v>
+      </c>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.853333333333333</v>
+        <v>0.824675324675325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.698795180722892</v>
+        <v>0.677506775067751</v>
       </c>
       <c r="D9" t="n">
-        <v>0.788461538461538</v>
+        <v>0.790874524714829</v>
       </c>
       <c r="E9" t="n">
-        <v>0.470588235294118</v>
-      </c>
+        <v>0.692307692307692</v>
+      </c>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8</v>
+        <v>0.792207792207792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.674698795180723</v>
+        <v>0.750677506775068</v>
       </c>
       <c r="D10" t="n">
-        <v>0.807692307692308</v>
+        <v>0.828897338403042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.764705882352941</v>
-      </c>
+        <v>0.796923076923077</v>
+      </c>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.706666666666667</v>
+        <v>0.730519480519481</v>
       </c>
       <c r="C11" t="n">
-        <v>0.63855421686747</v>
+        <v>0.639566395663957</v>
       </c>
       <c r="D11" t="n">
-        <v>0.730769230769231</v>
+        <v>0.756653992395437</v>
       </c>
       <c r="E11" t="n">
-        <v>0.705882352941177</v>
-      </c>
+        <v>0.729230769230769</v>
+      </c>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.933333333333333</v>
+        <v>0.886363636363636</v>
       </c>
       <c r="C12" t="n">
-        <v>0.698795180722892</v>
+        <v>0.685636856368564</v>
       </c>
       <c r="D12" t="n">
-        <v>0.923076923076923</v>
+        <v>0.908745247148289</v>
       </c>
       <c r="E12" t="n">
-        <v>0.823529411764706</v>
-      </c>
+        <v>0.886153846153846</v>
+      </c>
+      <c r="F12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/gcs_important_positive.xlsx
+++ b/xlsx/country_comparison/gcs_important_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">It would succeed in limiting climate change</t>
@@ -413,204 +416,240 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.847402597402597</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.872628726287263</v>
+        <v>0.850343400482566</v>
       </c>
       <c r="D2" t="n">
-        <v>0.88212927756654</v>
+        <v>0.846243166380705</v>
       </c>
       <c r="E2" t="n">
-        <v>0.821538461538462</v>
-      </c>
-      <c r="F2"/>
+        <v>0.852711489853347</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.882835068796025</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.831304617933607</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.61038961038961</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>0.663956639566396</v>
+        <v>0.65732264782255</v>
       </c>
       <c r="D3" t="n">
-        <v>0.688212927756654</v>
+        <v>0.590224556306726</v>
       </c>
       <c r="E3" t="n">
-        <v>0.649230769230769</v>
-      </c>
-      <c r="F3"/>
+        <v>0.668754916885637</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.680659984651993</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.655495655800556</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.564935064935065</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B4"/>
       <c r="C4" t="n">
-        <v>0.650406504065041</v>
+        <v>0.603427406515422</v>
       </c>
       <c r="D4" t="n">
-        <v>0.608365019011407</v>
+        <v>0.561384194731945</v>
       </c>
       <c r="E4" t="n">
-        <v>0.581538461538462</v>
-      </c>
-      <c r="F4"/>
+        <v>0.636720648620935</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.589981450006799</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.607317361474528</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.818181818181818</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5"/>
       <c r="C5" t="n">
-        <v>0.802168021680217</v>
+        <v>0.78909912832242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.737642585551331</v>
+        <v>0.830792937122105</v>
       </c>
       <c r="E5" t="n">
-        <v>0.790769230769231</v>
-      </c>
-      <c r="F5"/>
+        <v>0.781744003898685</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.770069515575341</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.805714330339772</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.86038961038961</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6"/>
       <c r="C6" t="n">
-        <v>0.848238482384824</v>
+        <v>0.842646478335708</v>
       </c>
       <c r="D6" t="n">
-        <v>0.878326996197719</v>
+        <v>0.873821088261075</v>
       </c>
       <c r="E6" t="n">
-        <v>0.812307692307692</v>
-      </c>
-      <c r="F6"/>
+        <v>0.828394871787062</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.865429450348204</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.802561390400267</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.756493506493506</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7"/>
       <c r="C7" t="n">
-        <v>0.680216802168022</v>
+        <v>0.715706606904551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.768060836501901</v>
+        <v>0.77978233110601</v>
       </c>
       <c r="E7" t="n">
-        <v>0.661538461538462</v>
-      </c>
-      <c r="F7"/>
+        <v>0.669825277864569</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.763846544097173</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.676305777211548</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.805194805194805</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B8"/>
       <c r="C8" t="n">
-        <v>0.802168021680217</v>
+        <v>0.803410343926469</v>
       </c>
       <c r="D8" t="n">
-        <v>0.840304182509506</v>
+        <v>0.826579035082195</v>
       </c>
       <c r="E8" t="n">
-        <v>0.781538461538462</v>
-      </c>
-      <c r="F8"/>
+        <v>0.791657008906875</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.839917227288125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.813959933474896</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.824675324675325</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B9"/>
       <c r="C9" t="n">
-        <v>0.677506775067751</v>
+        <v>0.736487208777247</v>
       </c>
       <c r="D9" t="n">
-        <v>0.790874524714829</v>
+        <v>0.805311929258578</v>
       </c>
       <c r="E9" t="n">
-        <v>0.692307692307692</v>
-      </c>
-      <c r="F9"/>
+        <v>0.661519264827797</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.782931812063758</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.708150808913729</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.792207792207792</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B10"/>
       <c r="C10" t="n">
-        <v>0.750677506775068</v>
+        <v>0.789006065190874</v>
       </c>
       <c r="D10" t="n">
-        <v>0.828897338403042</v>
+        <v>0.782341061634825</v>
       </c>
       <c r="E10" t="n">
-        <v>0.796923076923077</v>
-      </c>
-      <c r="F10"/>
+        <v>0.756097997098169</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.825726977408344</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.812976999834436</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.730519480519481</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B11"/>
       <c r="C11" t="n">
-        <v>0.639566395663957</v>
+        <v>0.710606435572038</v>
       </c>
       <c r="D11" t="n">
-        <v>0.756653992395437</v>
+        <v>0.723111178713084</v>
       </c>
       <c r="E11" t="n">
-        <v>0.729230769230769</v>
-      </c>
-      <c r="F11"/>
+        <v>0.650897457118823</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.773374430663679</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.710946380735744</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.886363636363636</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B12"/>
       <c r="C12" t="n">
-        <v>0.685636856368564</v>
+        <v>0.827760474920646</v>
       </c>
       <c r="D12" t="n">
-        <v>0.908745247148289</v>
+        <v>0.895389653221914</v>
       </c>
       <c r="E12" t="n">
-        <v>0.886153846153846</v>
-      </c>
-      <c r="F12"/>
+        <v>0.658771647299654</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.895996628644863</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.890811572476789</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/gcs_important_positive.xlsx
+++ b/xlsx/country_comparison/gcs_important_positive.xlsx
@@ -424,231 +424,253 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.850343400482566</v>
+        <v>0.850202263675242</v>
       </c>
       <c r="D2" t="n">
-        <v>0.846243166380705</v>
+        <v>0.8488971196879</v>
       </c>
       <c r="E2" t="n">
-        <v>0.852711489853347</v>
+        <v>0.863129480836318</v>
       </c>
       <c r="F2" t="n">
-        <v>0.882835068796025</v>
+        <v>0.884782369450041</v>
       </c>
       <c r="G2" t="n">
-        <v>0.831304617933607</v>
+        <v>0.833254487492411</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.65732264782255</v>
+        <v>0.670294612279797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.590224556306726</v>
+        <v>0.607389306457249</v>
       </c>
       <c r="E3" t="n">
-        <v>0.668754916885637</v>
+        <v>0.673842310966331</v>
       </c>
       <c r="F3" t="n">
-        <v>0.680659984651993</v>
+        <v>0.683998715918277</v>
       </c>
       <c r="G3" t="n">
-        <v>0.655495655800556</v>
+        <v>0.690815665341166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.603427406515422</v>
+        <v>0.604202455239258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.561384194731945</v>
+        <v>0.553999428778729</v>
       </c>
       <c r="E4" t="n">
-        <v>0.636720648620935</v>
+        <v>0.634533747300876</v>
       </c>
       <c r="F4" t="n">
-        <v>0.589981450006799</v>
+        <v>0.590900477755048</v>
       </c>
       <c r="G4" t="n">
-        <v>0.607317361474528</v>
+        <v>0.625125598003905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.78909912832242</v>
+        <v>0.789851483876648</v>
       </c>
       <c r="D5" t="n">
-        <v>0.830792937122105</v>
+        <v>0.831321861274831</v>
       </c>
       <c r="E5" t="n">
-        <v>0.781744003898685</v>
+        <v>0.792625664935314</v>
       </c>
       <c r="F5" t="n">
-        <v>0.770069515575341</v>
+        <v>0.784265253166336</v>
       </c>
       <c r="G5" t="n">
-        <v>0.805714330339772</v>
+        <v>0.767071823144269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C6" t="n">
-        <v>0.842646478335708</v>
+        <v>0.848046520739918</v>
       </c>
       <c r="D6" t="n">
-        <v>0.873821088261075</v>
+        <v>0.882220086548931</v>
       </c>
       <c r="E6" t="n">
-        <v>0.828394871787062</v>
+        <v>0.847763296510963</v>
       </c>
       <c r="F6" t="n">
-        <v>0.865429450348204</v>
+        <v>0.866734479985719</v>
       </c>
       <c r="G6" t="n">
-        <v>0.802561390400267</v>
+        <v>0.812148841450615</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C7" t="n">
-        <v>0.715706606904551</v>
+        <v>0.722738839888414</v>
       </c>
       <c r="D7" t="n">
-        <v>0.77978233110601</v>
+        <v>0.788112827688651</v>
       </c>
       <c r="E7" t="n">
-        <v>0.669825277864569</v>
+        <v>0.66874581079994</v>
       </c>
       <c r="F7" t="n">
-        <v>0.763846544097173</v>
+        <v>0.768485004310543</v>
       </c>
       <c r="G7" t="n">
-        <v>0.676305777211548</v>
+        <v>0.700163500134658</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.803410343926469</v>
+        <v>0.811973452443614</v>
       </c>
       <c r="D8" t="n">
-        <v>0.826579035082195</v>
+        <v>0.814176075263413</v>
       </c>
       <c r="E8" t="n">
-        <v>0.791657008906875</v>
+        <v>0.817549638435917</v>
       </c>
       <c r="F8" t="n">
-        <v>0.839917227288125</v>
+        <v>0.844080656112157</v>
       </c>
       <c r="G8" t="n">
-        <v>0.813959933474896</v>
+        <v>0.798439634793963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C9" t="n">
-        <v>0.736487208777247</v>
+        <v>0.748240262342772</v>
       </c>
       <c r="D9" t="n">
-        <v>0.805311929258578</v>
+        <v>0.817692467181949</v>
       </c>
       <c r="E9" t="n">
-        <v>0.661519264827797</v>
+        <v>0.68506203549294</v>
       </c>
       <c r="F9" t="n">
-        <v>0.782931812063758</v>
+        <v>0.785968497611553</v>
       </c>
       <c r="G9" t="n">
-        <v>0.708150808913729</v>
+        <v>0.724365329234586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C10" t="n">
-        <v>0.789006065190874</v>
+        <v>0.789728098891513</v>
       </c>
       <c r="D10" t="n">
-        <v>0.782341061634825</v>
+        <v>0.796508366900751</v>
       </c>
       <c r="E10" t="n">
-        <v>0.756097997098169</v>
+        <v>0.744806507658352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.825726977408344</v>
+        <v>0.824670695727682</v>
       </c>
       <c r="G10" t="n">
-        <v>0.812976999834436</v>
+        <v>0.811842722010817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C11" t="n">
-        <v>0.710606435572038</v>
+        <v>0.706974167162295</v>
       </c>
       <c r="D11" t="n">
-        <v>0.723111178713084</v>
+        <v>0.739425746257785</v>
       </c>
       <c r="E11" t="n">
-        <v>0.650897457118823</v>
+        <v>0.622135196342367</v>
       </c>
       <c r="F11" t="n">
-        <v>0.773374430663679</v>
+        <v>0.781260242023602</v>
       </c>
       <c r="G11" t="n">
-        <v>0.710946380735744</v>
+        <v>0.707947543215837</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C12" t="n">
-        <v>0.827760474920646</v>
+        <v>0.823502794730398</v>
       </c>
       <c r="D12" t="n">
-        <v>0.895389653221914</v>
+        <v>0.889677831744003</v>
       </c>
       <c r="E12" t="n">
-        <v>0.658771647299654</v>
+        <v>0.680656006284602</v>
       </c>
       <c r="F12" t="n">
-        <v>0.895996628644863</v>
+        <v>0.898231896977422</v>
       </c>
       <c r="G12" t="n">
-        <v>0.890811572476789</v>
+        <v>0.878418233400083</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_important_positive.xlsx
+++ b/xlsx/country_comparison/gcs_important_positive.xlsx
@@ -65,7 +65,8 @@
     <t xml:space="preserve">It would be technically difficult to put in place</t>
   </si>
   <si>
-    <t xml:space="preserve">Having enough information on this scheme and its consequences</t>
+    <t xml:space="preserve">Having enough information on
+this scheme and its consequences</t>
   </si>
 </sst>
 </file>
@@ -424,253 +425,253 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
+      <c r="B2" t="n">
+        <v>0.781977120663347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.850202263675242</v>
+        <v>0.849355519254144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8488971196879</v>
+        <v>0.848862622959451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.863129480836318</v>
+        <v>0.863126070347844</v>
       </c>
       <c r="F2" t="n">
-        <v>0.884782369450041</v>
+        <v>0.863285412891485</v>
       </c>
       <c r="G2" t="n">
-        <v>0.833254487492411</v>
+        <v>0.833244627262759</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
+      <c r="B3" t="n">
+        <v>0.82954095574166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.670294612279797</v>
+        <v>0.665906725952896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.607389306457249</v>
+        <v>0.607432380472566</v>
       </c>
       <c r="E3" t="n">
-        <v>0.673842310966331</v>
+        <v>0.673839478785807</v>
       </c>
       <c r="F3" t="n">
-        <v>0.683998715918277</v>
+        <v>0.657169211771068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.690815665341166</v>
+        <v>0.690835106601304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
+      <c r="B4" t="n">
+        <v>0.762721111903187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.604202455239258</v>
+        <v>0.603267309381416</v>
       </c>
       <c r="D4" t="n">
-        <v>0.553999428778729</v>
+        <v>0.553916523050434</v>
       </c>
       <c r="E4" t="n">
-        <v>0.634533747300876</v>
+        <v>0.634502026544765</v>
       </c>
       <c r="F4" t="n">
-        <v>0.590900477755048</v>
+        <v>0.589338070076618</v>
       </c>
       <c r="G4" t="n">
-        <v>0.625125598003905</v>
+        <v>0.625151968252833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
+      <c r="B5" t="n">
+        <v>0.771927139349138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.789851483876648</v>
+        <v>0.790239849959044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.831321861274831</v>
+        <v>0.831283093710656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.792625664935314</v>
+        <v>0.792627442855504</v>
       </c>
       <c r="F5" t="n">
-        <v>0.784265253166336</v>
+        <v>0.781774044391452</v>
       </c>
       <c r="G5" t="n">
-        <v>0.767071823144269</v>
+        <v>0.7670387246316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
+      <c r="B6" t="n">
+        <v>0.767803777210884</v>
       </c>
       <c r="C6" t="n">
-        <v>0.848046520739918</v>
+        <v>0.848600325192891</v>
       </c>
       <c r="D6" t="n">
-        <v>0.882220086548931</v>
+        <v>0.882123622438504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.847763296510963</v>
+        <v>0.847762661185943</v>
       </c>
       <c r="F6" t="n">
-        <v>0.866734479985719</v>
+        <v>0.862519778212693</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812148841450615</v>
+        <v>0.812142695785371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
+      <c r="B7" t="n">
+        <v>0.787026462091655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.722738839888414</v>
+        <v>0.722764735227507</v>
       </c>
       <c r="D7" t="n">
-        <v>0.788112827688651</v>
+        <v>0.788092642444145</v>
       </c>
       <c r="E7" t="n">
-        <v>0.66874581079994</v>
+        <v>0.66876277172299</v>
       </c>
       <c r="F7" t="n">
-        <v>0.768485004310543</v>
+        <v>0.781375671969905</v>
       </c>
       <c r="G7" t="n">
-        <v>0.700163500134658</v>
+        <v>0.700159157691239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
+      <c r="B8" t="n">
+        <v>0.822092005604102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.811973452443614</v>
+        <v>0.813940834692694</v>
       </c>
       <c r="D8" t="n">
-        <v>0.814176075263413</v>
+        <v>0.814127219354403</v>
       </c>
       <c r="E8" t="n">
-        <v>0.817549638435917</v>
+        <v>0.817542214350788</v>
       </c>
       <c r="F8" t="n">
-        <v>0.844080656112157</v>
+        <v>0.848384772393614</v>
       </c>
       <c r="G8" t="n">
-        <v>0.798439634793963</v>
+        <v>0.798440183168175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
+      <c r="B9" t="n">
+        <v>0.782606682047502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.748240262342772</v>
+        <v>0.748062572706373</v>
       </c>
       <c r="D9" t="n">
-        <v>0.817692467181949</v>
+        <v>0.81766831549821</v>
       </c>
       <c r="E9" t="n">
-        <v>0.68506203549294</v>
+        <v>0.685057474556869</v>
       </c>
       <c r="F9" t="n">
-        <v>0.785968497611553</v>
+        <v>0.789232894471016</v>
       </c>
       <c r="G9" t="n">
-        <v>0.724365329234586</v>
+        <v>0.724375824671621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
+      <c r="B10" t="n">
+        <v>0.792371939866051</v>
       </c>
       <c r="C10" t="n">
-        <v>0.789728098891513</v>
+        <v>0.788954875252674</v>
       </c>
       <c r="D10" t="n">
-        <v>0.796508366900751</v>
+        <v>0.796439642608428</v>
       </c>
       <c r="E10" t="n">
-        <v>0.744806507658352</v>
+        <v>0.744830059509387</v>
       </c>
       <c r="F10" t="n">
-        <v>0.824670695727682</v>
+        <v>0.833479461725312</v>
       </c>
       <c r="G10" t="n">
-        <v>0.811842722010817</v>
+        <v>0.811832785438631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
+      <c r="B11" t="n">
+        <v>0.764334484472087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.706974167162295</v>
+        <v>0.707149714298534</v>
       </c>
       <c r="D11" t="n">
-        <v>0.739425746257785</v>
+        <v>0.739404784241528</v>
       </c>
       <c r="E11" t="n">
-        <v>0.622135196342367</v>
+        <v>0.622144203827349</v>
       </c>
       <c r="F11" t="n">
-        <v>0.781260242023602</v>
+        <v>0.790728857332737</v>
       </c>
       <c r="G11" t="n">
-        <v>0.707947543215837</v>
+        <v>0.707993241866075</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="e">
-        <v>#NUM!</v>
+      <c r="B12" t="n">
+        <v>0.888025717645383</v>
       </c>
       <c r="C12" t="n">
-        <v>0.823502794730398</v>
+        <v>0.82411912592662</v>
       </c>
       <c r="D12" t="n">
-        <v>0.889677831744003</v>
+        <v>0.88966513094401</v>
       </c>
       <c r="E12" t="n">
-        <v>0.680656006284602</v>
+        <v>0.680672740829799</v>
       </c>
       <c r="F12" t="n">
-        <v>0.898231896977422</v>
+        <v>0.908863993352952</v>
       </c>
       <c r="G12" t="n">
-        <v>0.878418233400083</v>
+        <v>0.878432115835494</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_important_positive.xlsx
+++ b/xlsx/country_comparison/gcs_important_positive.xlsx
@@ -426,7 +426,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.781977120663347</v>
+        <v>0.7817920770518</v>
       </c>
       <c r="C2" t="n">
         <v>0.849355519254144</v>
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.82954095574166</v>
+        <v>0.813667927927461</v>
       </c>
       <c r="C3" t="n">
         <v>0.665906725952896</v>
@@ -472,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.762721111903187</v>
+        <v>0.753864768908674</v>
       </c>
       <c r="C4" t="n">
         <v>0.603267309381416</v>
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.771927139349138</v>
+        <v>0.77729805843849</v>
       </c>
       <c r="C5" t="n">
         <v>0.790239849959044</v>
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.767803777210884</v>
+        <v>0.768956430530456</v>
       </c>
       <c r="C6" t="n">
         <v>0.848600325192891</v>
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.787026462091655</v>
+        <v>0.785387788919746</v>
       </c>
       <c r="C7" t="n">
         <v>0.722764735227507</v>
@@ -564,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.822092005604102</v>
+        <v>0.823106827968406</v>
       </c>
       <c r="C8" t="n">
         <v>0.813940834692694</v>
@@ -587,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.782606682047502</v>
+        <v>0.78809745460743</v>
       </c>
       <c r="C9" t="n">
         <v>0.748062572706373</v>
@@ -610,7 +610,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.792371939866051</v>
+        <v>0.802215745893978</v>
       </c>
       <c r="C10" t="n">
         <v>0.788954875252674</v>
@@ -633,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.764334484472087</v>
+        <v>0.769051039543017</v>
       </c>
       <c r="C11" t="n">
         <v>0.707149714298534</v>
@@ -656,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.888025717645383</v>
+        <v>0.889639898399425</v>
       </c>
       <c r="C12" t="n">
         <v>0.82411912592662</v>

--- a/xlsx/country_comparison/gcs_important_positive.xlsx
+++ b/xlsx/country_comparison/gcs_important_positive.xlsx
@@ -426,22 +426,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7817920770518</v>
+        <v>0.593300805548547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.849355519254144</v>
+        <v>0.798316168795588</v>
       </c>
       <c r="D2" t="n">
-        <v>0.848862622959451</v>
+        <v>0.809737487250624</v>
       </c>
       <c r="E2" t="n">
-        <v>0.863126070347844</v>
+        <v>0.801269845163997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.863285412891485</v>
+        <v>0.802759474182296</v>
       </c>
       <c r="G2" t="n">
-        <v>0.833244627262759</v>
+        <v>0.803503442074255</v>
       </c>
     </row>
     <row r="3">
@@ -449,22 +449,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.813667927927461</v>
+        <v>0.891425446185947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.665906725952896</v>
+        <v>0.734343884976076</v>
       </c>
       <c r="D3" t="n">
-        <v>0.607432380472566</v>
+        <v>0.66011845184374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.673839478785807</v>
+        <v>0.773993520808291</v>
       </c>
       <c r="F3" t="n">
-        <v>0.657169211771068</v>
+        <v>0.769785232844933</v>
       </c>
       <c r="G3" t="n">
-        <v>0.690835106601304</v>
+        <v>0.734188607563879</v>
       </c>
     </row>
     <row r="4">
@@ -472,22 +472,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.753864768908674</v>
+        <v>0.837842434332639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.603267309381416</v>
+        <v>0.649556135900333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.553916523050434</v>
+        <v>0.544523480585528</v>
       </c>
       <c r="E4" t="n">
-        <v>0.634502026544765</v>
+        <v>0.727832934920089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.589338070076618</v>
+        <v>0.722448306363765</v>
       </c>
       <c r="G4" t="n">
-        <v>0.625151968252833</v>
+        <v>0.676610115099755</v>
       </c>
     </row>
     <row r="5">
@@ -495,22 +495,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.77729805843849</v>
+        <v>0.747059011250423</v>
       </c>
       <c r="C5" t="n">
-        <v>0.790239849959044</v>
+        <v>0.760748646394783</v>
       </c>
       <c r="D5" t="n">
-        <v>0.831283093710656</v>
+        <v>0.820640960368556</v>
       </c>
       <c r="E5" t="n">
-        <v>0.792627442855504</v>
+        <v>0.745104631264865</v>
       </c>
       <c r="F5" t="n">
-        <v>0.781774044391452</v>
+        <v>0.72988960058406</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7670387246316</v>
+        <v>0.728092737150705</v>
       </c>
     </row>
     <row r="6">
@@ -518,22 +518,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.768956430530456</v>
+        <v>0.620917729383005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.848600325192891</v>
+        <v>0.78913119672879</v>
       </c>
       <c r="D6" t="n">
-        <v>0.882123622438504</v>
+        <v>0.855042207071307</v>
       </c>
       <c r="E6" t="n">
-        <v>0.847762661185943</v>
+        <v>0.753586689991038</v>
       </c>
       <c r="F6" t="n">
-        <v>0.862519778212693</v>
+        <v>0.834664561377067</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812142695785371</v>
+        <v>0.754698076525027</v>
       </c>
     </row>
     <row r="7">
@@ -541,22 +541,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.785387788919746</v>
+        <v>0.701622795907415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.722764735227507</v>
+        <v>0.712710646471761</v>
       </c>
       <c r="D7" t="n">
-        <v>0.788092642444145</v>
+        <v>0.757480297774307</v>
       </c>
       <c r="E7" t="n">
-        <v>0.66876277172299</v>
+        <v>0.637897645695564</v>
       </c>
       <c r="F7" t="n">
-        <v>0.781375671969905</v>
+        <v>0.877803125109165</v>
       </c>
       <c r="G7" t="n">
-        <v>0.700159157691239</v>
+        <v>0.700890373546844</v>
       </c>
     </row>
     <row r="8">
@@ -564,22 +564,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.823106827968406</v>
+        <v>0.71036942310177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.813940834692694</v>
+        <v>0.767459227638374</v>
       </c>
       <c r="D8" t="n">
-        <v>0.814127219354403</v>
+        <v>0.769430442315501</v>
       </c>
       <c r="E8" t="n">
-        <v>0.817542214350788</v>
+        <v>0.758346955137085</v>
       </c>
       <c r="F8" t="n">
-        <v>0.848384772393614</v>
+        <v>0.84096493071521</v>
       </c>
       <c r="G8" t="n">
-        <v>0.798440183168175</v>
+        <v>0.746768125063093</v>
       </c>
     </row>
     <row r="9">
@@ -587,22 +587,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.78809745460743</v>
+        <v>0.776451040625449</v>
       </c>
       <c r="C9" t="n">
-        <v>0.748062572706373</v>
+        <v>0.752356847825706</v>
       </c>
       <c r="D9" t="n">
-        <v>0.81766831549821</v>
+        <v>0.829686492804909</v>
       </c>
       <c r="E9" t="n">
-        <v>0.685057474556869</v>
+        <v>0.705157484400394</v>
       </c>
       <c r="F9" t="n">
-        <v>0.789232894471016</v>
+        <v>0.849273919987832</v>
       </c>
       <c r="G9" t="n">
-        <v>0.724375824671621</v>
+        <v>0.66342378640839</v>
       </c>
     </row>
     <row r="10">
@@ -610,22 +610,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.802215745893978</v>
+        <v>0.869708886859866</v>
       </c>
       <c r="C10" t="n">
-        <v>0.788954875252674</v>
+        <v>0.815652162844027</v>
       </c>
       <c r="D10" t="n">
-        <v>0.796439642608428</v>
+        <v>0.834311730887263</v>
       </c>
       <c r="E10" t="n">
-        <v>0.744830059509387</v>
+        <v>0.8156709550428</v>
       </c>
       <c r="F10" t="n">
-        <v>0.833479461725312</v>
+        <v>0.867891452365697</v>
       </c>
       <c r="G10" t="n">
-        <v>0.811832785438631</v>
+        <v>0.7671375817381</v>
       </c>
     </row>
     <row r="11">
@@ -633,22 +633,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.769051039543017</v>
+        <v>0.849616378214432</v>
       </c>
       <c r="C11" t="n">
-        <v>0.707149714298534</v>
+        <v>0.734028088236682</v>
       </c>
       <c r="D11" t="n">
-        <v>0.739404784241528</v>
+        <v>0.756084447572338</v>
       </c>
       <c r="E11" t="n">
-        <v>0.622144203827349</v>
+        <v>0.685545279841557</v>
       </c>
       <c r="F11" t="n">
-        <v>0.790728857332737</v>
+        <v>0.842706846604206</v>
       </c>
       <c r="G11" t="n">
-        <v>0.707993241866075</v>
+        <v>0.69712559445501</v>
       </c>
     </row>
     <row r="12">
@@ -656,22 +656,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.889639898399425</v>
+        <v>0.891121217137727</v>
       </c>
       <c r="C12" t="n">
-        <v>0.82411912592662</v>
+        <v>0.819983433106146</v>
       </c>
       <c r="D12" t="n">
-        <v>0.88966513094401</v>
+        <v>0.87483983315479</v>
       </c>
       <c r="E12" t="n">
-        <v>0.680672740829799</v>
+        <v>0.673226727255466</v>
       </c>
       <c r="F12" t="n">
-        <v>0.908863993352952</v>
+        <v>0.913082349886563</v>
       </c>
       <c r="G12" t="n">
-        <v>0.878432115835494</v>
+        <v>0.869575896966582</v>
       </c>
     </row>
   </sheetData>
